--- a/data/trans_camb/P16A13-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A13-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A13-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A13-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,43</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,15; 2,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 1,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,77; 3,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,42; 0,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,26; 0,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,61; 0,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,87; 1,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 0,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 1,23</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>191,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,97%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,74%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,62%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,98%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-76,15; —</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,91; 85,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,64; 114,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 198,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,24; 169,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,53; 143,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,19; 235,12</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,83; 2,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,39; 1,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,76; 1,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 2,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 1,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,14; 1,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,31; 1,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 1,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 1,01</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,63%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,65%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,57%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,41%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,42; 221,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,33; 142,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,85; 128,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,7; 415,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,76; 318,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,19; 316,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,51; 182,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,1; 119,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,4; 108,06</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 2,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,08; 1,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,34; 1,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,22; 3,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,63; 1,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,53; 2,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,39; 2,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,46; 0,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,93; 1,32</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,53%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,48%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,44%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,52%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,57%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,13%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,27%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,94%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,26; 123,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,89; 80,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,93; 74,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,19; 258,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,03; 121,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,65; 201,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,38; 132,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,08; 42,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,5; 81,51</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,23</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,78</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,43; 5,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,37; 1,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,42; 5,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 4,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,36; -0,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,76; 2,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 4,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,78; -0,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 3,47</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,38%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,79%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>115,16%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,51%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,07%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,04%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,96%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,68%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,46%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,26; 365,97</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,04; 104,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,59; 314,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,08; 162,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,82; -8,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,97; 93,83</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,88; 157,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,09; 4,23</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,53; 138,25</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,35</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,95; 2,27</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,53; 4,52</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,56; 7,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 5,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 5,43</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,4; 7,02</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,58; 2,82</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,42; 4,07</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,11; 6,22</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,89%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,9%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>112,45%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,71%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,68%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,88%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,52%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,7%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,44; 95,36</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,94; 177,6</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,91; 270,74</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,71; 119,28</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,92; 128,14</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,42; 174,41</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,09; 70,18</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,75; 111,0</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,64; 163,16</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,84</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,51</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,87</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,03; 7,99</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,72; 3,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,84; 12,74</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,7; 6,85</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 4,78</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,4; 14,87</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,79; 6,53</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,01; 3,16</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,59; 12,99</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,6%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>173,77%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,83%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,7%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>159,42%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,19%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>165,74%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,58; 178,14</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,49; 70,79</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>87,18; 313,63</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,55; 126,62</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,54; 80,7</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>71,67; 255,72</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,35; 121,17</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,31; 56,82</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>98,17; 235,75</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,23</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,56; 2,32</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,56; 1,09</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,82; 4,79</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,73; 2,76</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 1,36</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,48; 5,54</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,93; 2,31</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 0,99</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,44; 4,89</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,32%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>142,67%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,09%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>127,99%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,75%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>135,31%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,95; 101,56</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,65; 47,66</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>89,22; 210,69</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,06; 87,5</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,82; 42,96</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>87,35; 178,31</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,45; 81,36</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,89; 34,46</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>102,48; 175,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A13-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A13-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-0,07</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 3,67</t>
+          <t>-0,75; 7,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 0,7</t>
+          <t>-2,68; 0,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,23</t>
+          <t>-1,16; 3,04</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>66,74%</t>
+          <t>199,16%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-68,39%</t>
+          <t>-71,28%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-37,98%</t>
+          <t>-6,51%</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 198,61</t>
+          <t>-100,0; 172,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-98,19; 235,12</t>
+          <t>-97,46; 526,18</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,24</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 1,3</t>
+          <t>-1,8; 1,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 1,65</t>
+          <t>-1,28; 1,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 1,01</t>
+          <t>-1,13; 0,88</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-21,41%</t>
+          <t>-22,3%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>-4,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-11,41%</t>
+          <t>-16,69%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-81,85; 128,58</t>
+          <t>-80,77; 121,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-76,19; 316,59</t>
+          <t>-82,73; 243,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-61,4; 108,06</t>
+          <t>-63,32; 98,81</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,3</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 1,02</t>
+          <t>-2,32; 1,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 2,49</t>
+          <t>-0,51; 2,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 1,32</t>
+          <t>-0,92; 1,38</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-22,48%</t>
+          <t>-21,34%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>55,57%</t>
+          <t>58,09%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>14,25%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-70,93; 74,07</t>
+          <t>-70,84; 74,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-25,65; 201,09</t>
+          <t>-22,69; 212,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-33,5; 81,51</t>
+          <t>-33,22; 84,94</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>1,1</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 5,38</t>
+          <t>-2,57; 4,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 2,58</t>
+          <t>-1,85; 2,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,2; 3,47</t>
+          <t>-0,98; 2,89</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>115,16%</t>
+          <t>67,46%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>11,2%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>53,46%</t>
+          <t>33,05%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 314,99</t>
+          <t>-52,91; 223,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,97; 93,83</t>
+          <t>-34,21; 88,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,53; 138,25</t>
+          <t>-23,32; 112,26</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>4,41</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,56; 7,12</t>
+          <t>1,64; 7,17</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,4; 7,02</t>
+          <t>1,45; 7,03</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,11; 6,22</t>
+          <t>2,2; 6,26</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>112,45%</t>
+          <t>114,4%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>75,88%</t>
+          <t>76,95%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>89,7%</t>
+          <t>90,94%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>22,91; 270,74</t>
+          <t>24,48; 280,45</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>13,42; 174,41</t>
+          <t>13,57; 176,02</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>33,64; 163,16</t>
+          <t>34,17; 165,22</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>4,17</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>9,84</t>
+          <t>7,93</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>11,51</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>10,87</t>
+          <t>4,89</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,03; 7,99</t>
+          <t>-0,68; 7,59</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 3,0</t>
+          <t>-2,74; 4,15</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>6,84; 12,74</t>
+          <t>4,03; 11,33</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,85</t>
+          <t>-0,54; 7,81</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 4,78</t>
+          <t>-4,51; 2,87</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,4; 14,87</t>
+          <t>-5,84; 8,75</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,79; 6,53</t>
+          <t>0,33; 6,44</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 3,16</t>
+          <t>-2,68; 2,35</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>6,59; 12,99</t>
+          <t>-1,26; 8,78</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>73,6%</t>
+          <t>72,44%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>19,86%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>173,77%</t>
+          <t>185,76%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>50,83%</t>
+          <t>47,34%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>20,7%</t>
+          <t>-14,75%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>159,42%</t>
+          <t>35,15%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>59,19%</t>
+          <t>55,44%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>-3,6%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>165,74%</t>
+          <t>81,58%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>10,58; 178,14</t>
+          <t>-18,72; 266,91</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-36,49; 70,79</t>
+          <t>-45,42; 159,09</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>87,18; 313,63</t>
+          <t>52,58; 482,19</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>8,55; 126,62</t>
+          <t>-8,18; 140,93</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-15,54; 80,7</t>
+          <t>-50,58; 52,34</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>71,67; 255,72</t>
+          <t>-57,85; 131,13</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>23,35; 121,17</t>
+          <t>4,52; 132,31</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 56,82</t>
+          <t>-38,95; 48,73</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>98,17; 235,75</t>
+          <t>-11,3; 174,23</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>12,37</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>19,93</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>16,92</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,32</t>
+          <t>0,14; 10,92</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,09</t>
+          <t>-4,72; 4,39</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,82; 4,79</t>
+          <t>6,97; 17,39</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,76</t>
+          <t>-0,55; 8,45</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 1,36</t>
+          <t>-0,38; 8,68</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>3,48; 5,54</t>
+          <t>15,81; 23,91</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,31</t>
+          <t>0,68; 8,01</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 0,99</t>
+          <t>-1,37; 5,49</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,44; 4,89</t>
+          <t>13,34; 19,92</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>55,32%</t>
+          <t>68,92%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>-6,79%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>142,67%</t>
+          <t>162,52%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>49,09%</t>
+          <t>54,88%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>57,0%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>127,99%</t>
+          <t>286,48%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>51,75%</t>
+          <t>60,77%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>30,73%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>135,31%</t>
+          <t>234,65%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-1,17; 198,15</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-48,55; 86,88</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>63,23; 350,94</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-7,52; 181,65</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-6,79; 178,15</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>151,29; 509,28</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>7,07; 146,15</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-15,11; 98,59</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>140,02; 385,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>3,37</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>1,76</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>4,24</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>3,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 2,32</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-0,56; 1,09</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>1,79; 4,37</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>0,73; 2,76</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-0,54; 1,36</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>2,73; 5,27</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 2,31</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-0,25; 0,99</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>2,77; 4,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>55,32%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>11,18%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>127,61%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>49,09%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>12,81%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>117,89%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>51,75%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>12,24%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>122,29%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>18,95; 101,56</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-18,65; 47,66</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>89,22; 210,69</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>62,3; 189,57</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>16,06; 87,5</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-13,82; 42,96</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>87,35; 178,31</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>72,56; 170,0</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>26,45; 81,36</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-7,89; 34,46</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>102,48; 175,2</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>83,61; 160,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P16A13-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A13-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 2,68</t>
+          <t>-0,38; 2,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 1,71</t>
+          <t>-0,81; 1,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 7,24</t>
+          <t>-0,64; 5,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 0,59</t>
+          <t>-2,42; 0,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 0,99</t>
+          <t>-2,3; 1,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 0,46</t>
+          <t>-2,73; 0,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 1,12</t>
+          <t>-1,05; 1,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 0,9</t>
+          <t>-1,14; 0,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 3,04</t>
+          <t>-1,22; 4,19</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-76,15; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-89,91; 85,88</t>
+          <t>-91,02; 101,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-89,64; 114,06</t>
+          <t>-88,02; 130,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 172,14</t>
+          <t>-100,0; 177,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-60,24; 169,91</t>
+          <t>-64,09; 151,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-75,53; 143,85</t>
+          <t>-75,55; 145,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-97,46; 526,18</t>
+          <t>-97,65; 524,69</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 2,23</t>
+          <t>-0,75; 2,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 1,48</t>
+          <t>-1,43; 1,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 1,21</t>
+          <t>-1,76; 1,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 2,54</t>
+          <t>-0,56; 2,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,86</t>
+          <t>-0,72; 1,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,39</t>
+          <t>-1,18; 1,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 1,78</t>
+          <t>-0,25; 1,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,27</t>
+          <t>-0,73; 1,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 0,88</t>
+          <t>-1,19; 0,86</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-39,42; 221,79</t>
+          <t>-37,18; 231,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-62,33; 142,54</t>
+          <t>-61,8; 155,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-80,77; 121,45</t>
+          <t>-82,74; 135,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-39,7; 415,75</t>
+          <t>-37,91; 437,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-55,76; 318,44</t>
+          <t>-56,5; 303,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-82,73; 243,27</t>
+          <t>-72,96; 236,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,51; 182,52</t>
+          <t>-16,65; 187,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,1; 119,53</t>
+          <t>-42,88; 128,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-63,32; 98,81</t>
+          <t>-65,95; 92,99</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 2,01</t>
+          <t>-1,65; 2,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 1,15</t>
+          <t>-2,2; 1,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 1,06</t>
+          <t>-2,38; 1,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 3,28</t>
+          <t>-0,25; 2,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 1,27</t>
+          <t>-1,68; 1,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 2,52</t>
+          <t>-0,45; 2,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 2,1</t>
+          <t>-0,43; 2,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 0,63</t>
+          <t>-1,46; 0,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 1,38</t>
+          <t>-0,9; 1,34</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-47,26; 123,99</t>
+          <t>-50,85; 133,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-66,89; 80,97</t>
+          <t>-66,02; 80,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-70,84; 74,62</t>
+          <t>-74,97; 82,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,19; 258,16</t>
+          <t>-12,76; 247,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-65,03; 121,63</t>
+          <t>-65,54; 117,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,69; 212,05</t>
+          <t>-19,92; 231,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-15,38; 132,69</t>
+          <t>-17,34; 128,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-56,08; 42,18</t>
+          <t>-54,92; 47,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-33,22; 84,94</t>
+          <t>-35,02; 86,94</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,43; 5,21</t>
+          <t>0,15; 5,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 1,56</t>
+          <t>-2,26; 1,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 4,23</t>
+          <t>-1,52; 4,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 4,86</t>
+          <t>-0,49; 4,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,36; -0,41</t>
+          <t>-4,43; -0,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 2,47</t>
+          <t>-1,88; 2,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,15</t>
+          <t>0,43; 3,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,78; -0,01</t>
+          <t>-2,74; 0,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 2,89</t>
+          <t>-1,31; 2,76</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,26; 365,97</t>
+          <t>-3,18; 313,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-62,04; 104,63</t>
+          <t>-62,12; 111,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-52,91; 223,98</t>
+          <t>-37,49; 226,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 162,7</t>
+          <t>-10,58; 172,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-79,82; -8,55</t>
+          <t>-79,26; 2,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,21; 88,39</t>
+          <t>-34,39; 99,1</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,88; 157,62</t>
+          <t>10,49; 158,55</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-65,09; 4,23</t>
+          <t>-64,98; 2,33</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-23,32; 112,26</t>
+          <t>-29,04; 103,45</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 2,27</t>
+          <t>-2,99; 1,97</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 4,52</t>
+          <t>-1,51; 4,26</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,64; 7,17</t>
+          <t>1,02; 7,08</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 5,07</t>
+          <t>-1,87; 5,16</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 5,43</t>
+          <t>-1,23; 5,7</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,45; 7,03</t>
+          <t>1,46; 7,39</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 2,82</t>
+          <t>-1,65; 2,91</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 4,07</t>
+          <t>-0,47; 4,08</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,2; 6,26</t>
+          <t>2,47; 6,54</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-58,44; 95,36</t>
+          <t>-57,26; 83,07</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-32,94; 177,6</t>
+          <t>-31,93; 152,16</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>24,48; 280,45</t>
+          <t>11,53; 280,99</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-23,71; 119,28</t>
+          <t>-26,13; 132,2</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 128,14</t>
+          <t>-16,56; 140,8</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>13,57; 176,02</t>
+          <t>15,86; 199,86</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-28,09; 70,18</t>
+          <t>-27,03; 74,58</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 111,0</t>
+          <t>-8,91; 107,57</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>34,17; 165,22</t>
+          <t>40,52; 178,38</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 7,59</t>
+          <t>-0,67; 7,21</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 4,15</t>
+          <t>-2,92; 4,15</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>4,03; 11,33</t>
+          <t>4,39; 11,3</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 7,81</t>
+          <t>-0,63; 7,69</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 2,87</t>
+          <t>-4,76; 2,39</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 8,75</t>
+          <t>-4,17; 9,34</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,33; 6,44</t>
+          <t>0,5; 6,63</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 2,35</t>
+          <t>-2,74; 2,38</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 8,78</t>
+          <t>-0,77; 8,52</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-18,72; 266,91</t>
+          <t>-20,94; 278,87</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-45,42; 159,09</t>
+          <t>-45,0; 158,49</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>52,58; 482,19</t>
+          <t>53,94; 421,72</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 140,93</t>
+          <t>-7,7; 132,05</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-50,58; 52,34</t>
+          <t>-51,98; 43,37</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-57,85; 131,13</t>
+          <t>-48,38; 144,36</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>4,52; 132,31</t>
+          <t>6,19; 141,35</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-38,95; 48,73</t>
+          <t>-38,04; 49,5</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 174,23</t>
+          <t>-9,54; 164,5</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,14; 10,92</t>
+          <t>-0,57; 10,52</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 4,39</t>
+          <t>-5,29; 3,83</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>6,97; 17,39</t>
+          <t>6,96; 16,87</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 8,45</t>
+          <t>-0,54; 8,22</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 8,68</t>
+          <t>-0,54; 8,26</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>15,81; 23,91</t>
+          <t>15,77; 23,85</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,68; 8,01</t>
+          <t>0,96; 8,17</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 5,49</t>
+          <t>-1,35; 5,79</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>13,34; 19,92</t>
+          <t>13,7; 19,91</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 198,15</t>
+          <t>-7,17; 203,71</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-48,55; 86,88</t>
+          <t>-51,67; 83,57</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>63,23; 350,94</t>
+          <t>63,52; 343,82</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 181,65</t>
+          <t>-8,18; 173,5</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 178,15</t>
+          <t>-9,1; 179,31</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>151,29; 509,28</t>
+          <t>151,85; 509,96</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>7,07; 146,15</t>
+          <t>9,85; 141,78</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 98,59</t>
+          <t>-15,64; 101,54</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>140,02; 385,81</t>
+          <t>142,73; 364,7</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,32</t>
+          <t>0,61; 2,47</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,09</t>
+          <t>-0,53; 1,15</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,37</t>
+          <t>2,04; 4,48</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,76</t>
+          <t>0,73; 2,78</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 1,36</t>
+          <t>-0,45; 1,39</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>2,73; 5,27</t>
+          <t>2,66; 5,28</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,31</t>
+          <t>0,96; 2,27</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 0,99</t>
+          <t>-0,21; 1,05</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>2,77; 4,61</t>
+          <t>2,84; 4,64</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>18,95; 101,56</t>
+          <t>21,4; 109,54</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 47,66</t>
+          <t>-16,99; 47,88</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>62,3; 189,57</t>
+          <t>69,24; 203,3</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>16,06; 87,5</t>
+          <t>17,56; 86,16</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 42,96</t>
+          <t>-11,37; 43,52</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>72,56; 170,0</t>
+          <t>69,34; 164,69</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>26,45; 81,36</t>
+          <t>29,56; 81,8</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 34,46</t>
+          <t>-5,81; 37,34</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>83,61; 160,27</t>
+          <t>87,23; 167,78</t>
         </is>
       </c>
     </row>
